--- a/others/data_n_rules.xlsx
+++ b/others/data_n_rules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@DOKUMEN\KULIAH\1. Semesteran\Smt 7\2. Sistem Pakar\Project-Sistem-Pakar-Optimasi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\@DOKUMEN\KULIAH\1. Semesteran\Smt 7\2. Sistem Pakar\Project-Sistem-Pakar-Optimasi\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7225D497-E781-4320-B894-ADCD56725270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25D6DA0-AC36-4D28-8E65-837A58168E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rules" sheetId="3" r:id="rId1"/>
@@ -2270,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E05B953-7BD7-4DFA-B4D7-B8382BE77D7E}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2771,7 +2771,7 @@
   <dimension ref="A1:E1346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4634,8 +4634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D486DD00-954E-4321-B52C-9032EE84128C}">
   <dimension ref="A1:M1345"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
